--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_VDT_KeHoachVonNamDuocDuyet.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_VDT_KeHoachVonNamDuocDuyet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\dungnv5\project\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -289,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -299,6 +296,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,17 +600,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -648,7 +648,7 @@
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -660,10 +660,10 @@
       <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -708,20 +708,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -811,16 +811,16 @@
       <c r="L3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="Q3" s="7" t="s">
